--- a/Planilla Segundo Parcial Race ready.xlsx
+++ b/Planilla Segundo Parcial Race ready.xlsx
@@ -312,6 +312,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -595,7 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -605,6 +608,30 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -635,36 +662,15 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,15 +1044,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -1058,113 +1064,113 @@
       <c r="T2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="23">
+      <c r="U2" s="22">
         <f>MAX(H6:H15)</f>
-        <v>0.75</v>
-      </c>
-      <c r="V2" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="V2" s="22">
         <f t="shared" ref="V2:AD2" si="0">MAX(I6:I15)</f>
-        <v>0.75</v>
-      </c>
-      <c r="W2" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="W2" s="22">
         <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="X2" s="23">
+        <v>0.09</v>
+      </c>
+      <c r="X2" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="Y2" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="Z2" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA2" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="AB2" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="AC2" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="AD2" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E3" s="11"/>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
       <c r="T3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="22">
         <f>IFERROR(MATCH(U2,H6:H15,0),"")</f>
         <v>2</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V3" s="22">
         <f t="shared" ref="V3:AD3" si="1">IFERROR(MATCH(V2,I6:I15,0),"")</f>
         <v>1</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="22">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="X3" s="23" t="str">
+        <v>7</v>
+      </c>
+      <c r="X3" s="22">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y3" s="23" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="22">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z3" s="23" t="str">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="22">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA3" s="23" t="str">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="22">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB3" s="23" t="str">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="22">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AC3" s="23" t="str">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="22">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AD3" s="23" t="str">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="22">
         <f t="shared" si="1"/>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="11"/>
       <c r="G4" s="1" t="s">
         <v>58</v>
@@ -1180,18 +1186,18 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
-      <c r="U4" s="41" t="s">
+      <c r="U4" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -1281,76 +1287,90 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="44">
         <f>IF(C6&lt;&gt;"",LOG(1/C6,2),"")</f>
-        <v>1</v>
+        <v>4.3219280948873626</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I6" s="1">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.04</v>
+      </c>
       <c r="R6" s="3">
         <f>IF(C6="",1,SUM(H6:Q6))</f>
         <v>1</v>
       </c>
-      <c r="U6" s="23">
+      <c r="U6" s="22">
         <f>SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
-        <v>0.436</v>
-      </c>
-      <c r="V6" s="23">
+        <v>0.112</v>
+      </c>
+      <c r="V6" s="22">
         <f t="shared" ref="V6:AD6" si="2">SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="W6" s="23">
+        <v>4.99E-2</v>
+      </c>
+      <c r="W6" s="22">
+        <f>SUMPRODUCT(J6:J15,$C$6:$C$15)</f>
+        <v>5.0100000000000006E-2</v>
+      </c>
+      <c r="X6" s="22">
         <f t="shared" si="2"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="X6" s="23">
+        <v>0.1908</v>
+      </c>
+      <c r="Y6" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="23">
+        <v>0.1028</v>
+      </c>
+      <c r="Z6" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="23">
+        <v>0.24170000000000003</v>
+      </c>
+      <c r="AA6" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="23">
+        <v>2.3100000000000006E-2</v>
+      </c>
+      <c r="AB6" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="23">
+        <v>0.15860000000000005</v>
+      </c>
+      <c r="AC6" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="23">
+        <v>3.15E-2</v>
+      </c>
+      <c r="AD6" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.95E-2</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1361,49 +1381,63 @@
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="D7" s="44">
         <f>IF(C7&lt;&gt;"",LOG(1/C7,2),"")</f>
-        <v>1.7369655941662063</v>
+        <v>3.6438561897747253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="2">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="I7" s="1">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
       <c r="R7" s="3">
         <f t="shared" ref="R7:R15" si="4">IF(C7="",1,SUM(H7:Q7))</f>
         <v>1</v>
       </c>
-      <c r="U7" s="41" t="s">
+      <c r="U7" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -1413,121 +1447,157 @@
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="44">
         <f>IF(C8&lt;&gt;"",LOG(1/C8,2),"")</f>
-        <v>2.3219280948873622</v>
+        <v>2.7369655941662061</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="1">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="I8" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="J8" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.04</v>
+      </c>
       <c r="R8" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="22">
         <f ca="1">IFERROR(INDIRECT("C"&amp;(6+U3-1))*U2,"")</f>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="V8" s="23">
+        <v>2.4E-2</v>
+      </c>
+      <c r="V8" s="22">
         <f t="shared" ref="V8:AD8" ca="1" si="5">IFERROR(INDIRECT("C"&amp;(6+V3-1))*V2,"")</f>
-        <v>0.375</v>
-      </c>
-      <c r="W8" s="23">
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="W8" s="22">
+        <f ca="1">IFERROR(INDIRECT("C"&amp;(6+W3-1))*W2,"")</f>
+        <v>2.6999999999999997E-3</v>
+      </c>
+      <c r="X8" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="X8" s="23" t="str">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="Y8" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Y8" s="23" t="str">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="Z8" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Z8" s="23" t="str">
+        <v>6.4400000000000013E-2</v>
+      </c>
+      <c r="AA8" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AA8" s="23" t="str">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB8" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AB8" s="23" t="str">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AC8" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AC8" s="23" t="str">
+        <v>2E-3</v>
+      </c>
+      <c r="AD8" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AD8" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>4.2000000000000006E-3</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="6" t="str">
+      <c r="C9" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D9" s="44">
         <f>IF(C9&lt;&gt;"",LOG(1/C9,2),"")</f>
-        <v/>
+        <v>2.1202942337177118</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="H9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="P9" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.04</v>
+      </c>
       <c r="R9" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U9" s="34" t="s">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="36"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="25"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -1537,68 +1607,90 @@
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="6" t="str">
+      <c r="C10" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D10" s="44">
         <f t="shared" ref="D10:D15" si="6">IF(C10&lt;&gt;"",LOG(1/C10,2),"")</f>
-        <v/>
+        <v>1.5994620704162712</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="H10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.04</v>
+      </c>
       <c r="R10" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="22">
         <f ca="1">IFERROR(U6-U8,"")</f>
-        <v>0.21100000000000002</v>
-      </c>
-      <c r="V10" s="23">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="V10" s="22">
         <f t="shared" ref="V10:AC10" ca="1" si="7">IFERROR(V6-V8,"")</f>
-        <v>0.17700000000000005</v>
-      </c>
-      <c r="W10" s="23">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="W10" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="23" t="str">
+        <v>4.7400000000000005E-2</v>
+      </c>
+      <c r="X10" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="Y10" s="23" t="str">
+        <v>0.18079999999999999</v>
+      </c>
+      <c r="Y10" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="Z10" s="23" t="str">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="Z10" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA10" s="23" t="str">
+        <v>0.17730000000000001</v>
+      </c>
+      <c r="AA10" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB10" s="23" t="str">
+        <v>2.1600000000000005E-2</v>
+      </c>
+      <c r="AB10" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC10" s="23" t="str">
+        <v>0.15260000000000004</v>
+      </c>
+      <c r="AC10" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD10" s="23" t="str">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="AD10" s="22">
         <f ca="1">IFERROR(AD6-AD8,"")</f>
-        <v/>
+        <v>3.5299999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -1609,25 +1701,47 @@
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6" t="str">
+      <c r="C11" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D11" s="44">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3.4739311883324122</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="H11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.04</v>
+      </c>
       <c r="R11" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1641,33 +1755,55 @@
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="6" t="str">
+      <c r="C12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D12" s="44">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5.0588936890535692</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="R12" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W12" s="37" t="s">
+      <c r="W12" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="X12" s="37"/>
+      <c r="X12" s="26"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1677,25 +1813,47 @@
       <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6" t="str">
+      <c r="C13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="44">
         <f t="shared" si="6"/>
-        <v/>
+        <v>6.6438561897747253</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="H13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.04</v>
+      </c>
       <c r="R13" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1703,9 +1861,9 @@
       <c r="W13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="43">
         <f ca="1">SUM(U10:AD10)</f>
-        <v>0.38800000000000007</v>
+        <v>0.87550000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -1716,28 +1874,50 @@
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="6" t="str">
+      <c r="C14" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="44">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5.6438561897747244</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="H14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
       <c r="R14" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -1748,71 +1928,93 @@
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="6" t="str">
+      <c r="C15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="44">
         <f t="shared" si="6"/>
-        <v/>
+        <v>6.6438561897747253</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.09</v>
+      </c>
       <c r="R15" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="22" t="s">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="T15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="U15" s="23" t="str">
+      <c r="U15" s="22" t="str">
         <f>IF(U3&lt;&gt;"","a"&amp;U3&amp;"-&gt;"&amp;"b"&amp;1,"")</f>
         <v>a2-&gt;b1</v>
       </c>
-      <c r="V15" s="23" t="str">
+      <c r="V15" s="22" t="str">
         <f>IF(V3&lt;&gt;"","a"&amp;V3&amp;"-&gt;"&amp;"b"&amp;2,"")</f>
         <v>a1-&gt;b2</v>
       </c>
-      <c r="W15" s="23" t="str">
+      <c r="W15" s="22" t="str">
         <f>IF(W3&lt;&gt;"","a"&amp;W3&amp;"-&gt;"&amp;"b"&amp;3,"")</f>
-        <v>a3-&gt;b3</v>
-      </c>
-      <c r="X15" s="23" t="str">
+        <v>a7-&gt;b3</v>
+      </c>
+      <c r="X15" s="22" t="str">
         <f>IF(X3&lt;&gt;"","a"&amp;X3&amp;"-&gt;"&amp;"b"&amp;4,"")</f>
-        <v/>
-      </c>
-      <c r="Y15" s="23" t="str">
+        <v>a1-&gt;b4</v>
+      </c>
+      <c r="Y15" s="22" t="str">
         <f>IF(Y3&lt;&gt;"","a"&amp;Y3&amp;"-&gt;"&amp;"b"&amp;5,"")</f>
-        <v/>
-      </c>
-      <c r="Z15" s="23" t="str">
+        <v>a7-&gt;b5</v>
+      </c>
+      <c r="Z15" s="22" t="str">
         <f>IF(Z3&lt;&gt;"","a"&amp;Z3&amp;"-&gt;"&amp;"b"&amp;6,"")</f>
-        <v/>
-      </c>
-      <c r="AA15" s="23" t="str">
+        <v>a4-&gt;b6</v>
+      </c>
+      <c r="AA15" s="22" t="str">
         <f>IF(AA3&lt;&gt;"","a"&amp;AA3&amp;"-&gt;"&amp;"b"&amp;7,"")</f>
-        <v/>
-      </c>
-      <c r="AB15" s="23" t="str">
+        <v>a1-&gt;b7</v>
+      </c>
+      <c r="AB15" s="22" t="str">
         <f>IF(AB3&lt;&gt;"","a"&amp;AB3&amp;"-&gt;"&amp;"b"&amp;8,"")</f>
-        <v/>
-      </c>
-      <c r="AC15" s="23" t="str">
+        <v>a7-&gt;b8</v>
+      </c>
+      <c r="AC15" s="22" t="str">
         <f>IF(AC3&lt;&gt;"","a"&amp;AC3&amp;"-&gt;"&amp;"b"&amp;9,"")</f>
-        <v/>
-      </c>
-      <c r="AD15" s="23" t="str">
+        <v>a9-&gt;b9</v>
+      </c>
+      <c r="AD15" s="22" t="str">
         <f>IF(AD3&lt;&gt;"","a"&amp;AD3&amp;"-&gt;"&amp;"b"&amp;10,"")</f>
-        <v/>
+        <v>a7-&gt;b10</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -1825,189 +2027,189 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="33"/>
+      <c r="D18" s="40"/>
       <c r="G18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="44">
         <f t="shared" ref="H18:Q18" si="8">SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
-        <v>0.436</v>
-      </c>
-      <c r="I18" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="I18" s="44">
         <f>SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="J18" s="6">
+        <v>4.99E-2</v>
+      </c>
+      <c r="J18" s="44">
         <f t="shared" si="8"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="K18" s="6">
+        <v>5.0100000000000006E-2</v>
+      </c>
+      <c r="K18" s="44">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
+        <v>0.1908</v>
+      </c>
+      <c r="L18" s="44">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
+        <v>0.1028</v>
+      </c>
+      <c r="M18" s="44">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
+        <v>0.24170000000000003</v>
+      </c>
+      <c r="N18" s="44">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
+        <v>2.3100000000000006E-2</v>
+      </c>
+      <c r="O18" s="44">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
+        <v>0.15860000000000005</v>
+      </c>
+      <c r="P18" s="44">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
+        <v>3.15E-2</v>
+      </c>
+      <c r="Q18" s="44">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.95E-2</v>
       </c>
       <c r="R18" s="3">
         <f>SUM(H18:Q18)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>71</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="44">
         <f>IF(H18&lt;&gt;0,LOG(1/H18,2),"")</f>
-        <v>1.1975999598851608</v>
-      </c>
-      <c r="I19" s="6">
+        <v>3.1584293626044833</v>
+      </c>
+      <c r="I19" s="44">
         <f t="shared" ref="I19:Q19" si="9">IF(I18&lt;&gt;0,LOG(1/I18,2),"")</f>
-        <v>0.85725982788391786</v>
-      </c>
-      <c r="J19" s="6">
+        <v>4.3248163742121886</v>
+      </c>
+      <c r="J19" s="44">
         <f t="shared" si="9"/>
-        <v>6.3808217839409309</v>
-      </c>
-      <c r="K19" s="6" t="str">
+        <v>4.3190455863542407</v>
+      </c>
+      <c r="K19" s="44">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L19" s="6" t="str">
+        <v>2.3898669235439383</v>
+      </c>
+      <c r="L19" s="44">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M19" s="6" t="str">
+        <v>3.2820878303555712</v>
+      </c>
+      <c r="M19" s="44">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N19" s="6" t="str">
+        <v>2.0487106217838669</v>
+      </c>
+      <c r="N19" s="44">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O19" s="6" t="str">
+        <v>5.4359633381333916</v>
+      </c>
+      <c r="O19" s="44">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P19" s="6" t="str">
+        <v>2.6565353238454708</v>
+      </c>
+      <c r="P19" s="44">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q19" s="6" t="str">
+        <v>4.9885043611621711</v>
+      </c>
+      <c r="Q19" s="44">
         <f t="shared" si="9"/>
-        <v/>
+        <v>4.6620035364849839</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="44">
         <f>SUMPRODUCT(C6:C15,D6:D15)</f>
-        <v>1.4854752972273344</v>
+        <v>2.643814761256233</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="44">
         <f>SUMPRODUCT(H18:Q18,H71:Q71)</f>
-        <v>1.3150724620463148</v>
+        <v>2.530596350204569</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="45">
         <f>D20-D21</f>
-        <v>0.17040283518101962</v>
+        <v>0.11321841105166408</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="45">
         <f>SUMPRODUCT(H77:Q86,H42:Q51)</f>
-        <v>0.17040283518101948</v>
+        <v>0.11321841105166462</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="44">
         <f>SUMPRODUCT(H18:Q18,H19:Q19)</f>
-        <v>1.071930868909144</v>
-      </c>
-      <c r="G24" s="30" t="s">
+        <v>2.9626794873596731</v>
+      </c>
+      <c r="G24" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="44">
         <f>D24+D21</f>
-        <v>2.3870033309554586</v>
+        <v>5.4932758375642425</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>58</v>
@@ -2057,9 +2259,9 @@
       <c r="C26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="44">
         <f>D25-D20</f>
-        <v>0.90152803372812418</v>
+        <v>2.8494610763080095</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>28</v>
@@ -2099,9 +2301,9 @@
       <c r="C27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="44">
         <f>SUMPRODUCT(C6:C15,D92:D101)</f>
-        <v>0.90152803372812429</v>
+        <v>2.8494610763080082</v>
       </c>
       <c r="F27" s="12">
         <f t="shared" ref="F27:F36" si="11">F6</f>
@@ -2110,45 +2312,45 @@
       <c r="G27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="43">
         <f t="shared" ref="H27:L31" si="12">IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
-        <v>0.28669724770642202</v>
-      </c>
-      <c r="I27" s="6">
+        <v>4.4642857142857151E-2</v>
+      </c>
+      <c r="I27" s="43">
         <f t="shared" si="12"/>
-        <v>0.67934782608695643</v>
-      </c>
-      <c r="J27" s="6">
+        <v>5.0100200400801612E-2</v>
+      </c>
+      <c r="J27" s="43">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="6" t="str">
+        <v>3.9920159680638723E-2</v>
+      </c>
+      <c r="K27" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L27" s="6" t="str">
+        <v>5.2410901467505246E-2</v>
+      </c>
+      <c r="L27" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M27" s="6" t="str">
+        <v>6.809338521400779E-2</v>
+      </c>
+      <c r="M27" s="43">
         <f t="shared" ref="M27:Q27" si="13">IF(OR($C6=0,M$18=0),"",M6/M$18*$C6)</f>
-        <v/>
-      </c>
-      <c r="N27" s="6" t="str">
+        <v>4.7579644187008691E-2</v>
+      </c>
+      <c r="N27" s="43">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="O27" s="6" t="str">
+        <v>6.4935064935064915E-2</v>
+      </c>
+      <c r="O27" s="43">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="P27" s="6" t="str">
+        <v>4.7288776796973506E-2</v>
+      </c>
+      <c r="P27" s="43">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q27" s="6" t="str">
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="Q27" s="43">
         <f t="shared" si="13"/>
-        <v/>
+        <v>5.0632911392405069E-2</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2159,55 +2361,55 @@
       <c r="G28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="43">
         <f t="shared" si="12"/>
-        <v>0.51605504587155959</v>
-      </c>
-      <c r="I28" s="6">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="I28" s="43">
         <f t="shared" si="12"/>
-        <v>0.1358695652173913</v>
-      </c>
-      <c r="J28" s="6">
+        <v>8.0160320641282576E-2</v>
+      </c>
+      <c r="J28" s="43">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="6" t="str">
+        <v>6.3872255489021951E-2</v>
+      </c>
+      <c r="K28" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L28" s="6" t="str">
+        <v>6.7085953878406712E-2</v>
+      </c>
+      <c r="L28" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M28" s="6" t="str">
+        <v>3.1128404669260701E-2</v>
+      </c>
+      <c r="M28" s="43">
         <f t="shared" ref="M28:Q28" si="14">IF(OR($C7=0,M$18=0),"",M7/M$18*$C7)</f>
-        <v/>
-      </c>
-      <c r="N28" s="6" t="str">
+        <v>7.6127430699213891E-2</v>
+      </c>
+      <c r="N28" s="43">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="O28" s="6" t="str">
+        <v>0.10389610389610386</v>
+      </c>
+      <c r="O28" s="43">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="P28" s="6" t="str">
+        <v>7.5662042875157612E-2</v>
+      </c>
+      <c r="P28" s="43">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Q28" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="43">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="C29" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D29" s="6">
         <f>10-COUNTBLANK($C$6:$C$15)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F29" s="12">
         <f t="shared" si="11"/>
@@ -2216,45 +2418,45 @@
       <c r="G29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="43">
         <f t="shared" si="12"/>
-        <v>0.19724770642201836</v>
-      </c>
-      <c r="I29" s="6">
+        <v>0.13392857142857142</v>
+      </c>
+      <c r="I29" s="43">
         <f t="shared" si="12"/>
-        <v>0.18478260869565216</v>
-      </c>
-      <c r="J29" s="6">
+        <v>0.15030060120240482</v>
+      </c>
+      <c r="J29" s="43">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="K29" s="6" t="str">
+        <v>0.11976047904191614</v>
+      </c>
+      <c r="K29" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L29" s="6" t="str">
+        <v>0.15723270440251572</v>
+      </c>
+      <c r="L29" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M29" s="6" t="str">
+        <v>0.20428015564202334</v>
+      </c>
+      <c r="M29" s="43">
         <f t="shared" ref="M29:Q29" si="15">IF(OR($C8=0,M$18=0),"",M8/M$18*$C8)</f>
-        <v/>
-      </c>
-      <c r="N29" s="6" t="str">
+        <v>0.14273893256102604</v>
+      </c>
+      <c r="N29" s="43">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O29" s="6" t="str">
+        <v>0.19480519480519473</v>
+      </c>
+      <c r="O29" s="43">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="P29" s="6" t="str">
+        <v>0.1418663303909205</v>
+      </c>
+      <c r="P29" s="43">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="Q29" s="6" t="str">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="Q29" s="43">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0.15189873417721519</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2263,7 +2465,7 @@
       </c>
       <c r="D30" s="6">
         <f>10-COUNTBLANK(H19:$Q$19)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F30" s="12">
         <f t="shared" si="11"/>
@@ -2272,45 +2474,45 @@
       <c r="G30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="6" t="str">
+      <c r="H30" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I30" s="6" t="str">
+        <v>0.20535714285714288</v>
+      </c>
+      <c r="I30" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J30" s="6" t="str">
+        <v>0.23046092184368741</v>
+      </c>
+      <c r="J30" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K30" s="6" t="str">
+        <v>0.36726546906187624</v>
+      </c>
+      <c r="K30" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L30" s="6" t="str">
+        <v>0.24109014675052412</v>
+      </c>
+      <c r="L30" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M30" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="M30" s="43">
         <f t="shared" ref="M30:Q30" si="16">IF(OR($C9=0,M$18=0),"",M9/M$18*$C9)</f>
-        <v/>
-      </c>
-      <c r="N30" s="6" t="str">
+        <v>0.26644600744724867</v>
+      </c>
+      <c r="N30" s="43">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="O30" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="O30" s="43">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P30" s="6" t="str">
+        <v>0.26103404791929374</v>
+      </c>
+      <c r="P30" s="43">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q30" s="6" t="str">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="Q30" s="43">
         <f t="shared" si="16"/>
-        <v/>
+        <v>0.23291139240506331</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2321,45 +2523,45 @@
       <c r="G31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="6" t="str">
+      <c r="H31" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I31" s="6" t="str">
+        <v>0.29464285714285715</v>
+      </c>
+      <c r="I31" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J31" s="6" t="str">
+        <v>0.33066132264529063</v>
+      </c>
+      <c r="J31" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K31" s="6" t="str">
+        <v>0.26347305389221554</v>
+      </c>
+      <c r="K31" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L31" s="6" t="str">
+        <v>0.34591194968553463</v>
+      </c>
+      <c r="L31" s="43">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M31" s="6" t="str">
+        <v>0.44941634241245138</v>
+      </c>
+      <c r="M31" s="43">
         <f t="shared" ref="M31:Q31" si="17">IF(OR($C10=0,M$18=0),"",M10/M$18*$C10)</f>
-        <v/>
-      </c>
-      <c r="N31" s="6" t="str">
+        <v>0.31402565163425733</v>
+      </c>
+      <c r="N31" s="43">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="O31" s="6" t="str">
+        <v>0.42857142857142844</v>
+      </c>
+      <c r="O31" s="43">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="P31" s="6" t="str">
+        <v>0.31210592686002514</v>
+      </c>
+      <c r="P31" s="43">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q31" s="6" t="str">
+        <v>0.20952380952380953</v>
+      </c>
+      <c r="Q31" s="43">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0.33417721518987348</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2370,45 +2572,45 @@
       <c r="G32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="6" t="str">
+      <c r="H32" s="43">
         <f t="shared" ref="H32:Q32" si="18">IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
-        <v/>
-      </c>
-      <c r="I32" s="6" t="str">
+        <v>8.0357142857142863E-2</v>
+      </c>
+      <c r="I32" s="43">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="J32" s="6" t="str">
+        <v>9.0180360721442893E-2</v>
+      </c>
+      <c r="J32" s="43">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="K32" s="6" t="str">
+        <v>7.1856287425149684E-2</v>
+      </c>
+      <c r="K32" s="43">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="L32" s="6" t="str">
+        <v>9.4339622641509441E-2</v>
+      </c>
+      <c r="L32" s="43">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M32" s="6" t="str">
+        <v>0.122568093385214</v>
+      </c>
+      <c r="M32" s="43">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="N32" s="6" t="str">
+        <v>8.5643359536615629E-2</v>
+      </c>
+      <c r="N32" s="43">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O32" s="6" t="str">
+        <v>0.11688311688311684</v>
+      </c>
+      <c r="O32" s="43">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="P32" s="6" t="str">
+        <v>8.5119798234552305E-2</v>
+      </c>
+      <c r="P32" s="43">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Q32" s="6" t="str">
+        <v>5.7142857142857134E-2</v>
+      </c>
+      <c r="Q32" s="43">
         <f t="shared" si="18"/>
-        <v/>
+        <v>9.1139240506329114E-2</v>
       </c>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
@@ -2419,45 +2621,45 @@
       <c r="G33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="6" t="str">
+      <c r="H33" s="43">
         <f t="shared" ref="H33:Q33" si="19">IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
-        <v/>
-      </c>
-      <c r="I33" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="I33" s="43">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="J33" s="6" t="str">
+        <v>3.0060120240480964E-2</v>
+      </c>
+      <c r="J33" s="43">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="K33" s="6" t="str">
+        <v>5.3892215568862263E-2</v>
+      </c>
+      <c r="K33" s="43">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L33" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="L33" s="43">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="M33" s="6" t="str">
+        <v>7.0038910505836563E-2</v>
+      </c>
+      <c r="M33" s="43">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="N33" s="6" t="str">
+        <v>2.8547786512205211E-2</v>
+      </c>
+      <c r="N33" s="43">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="O33" s="6" t="str">
+        <v>3.8961038961038946E-2</v>
+      </c>
+      <c r="O33" s="43">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="P33" s="6" t="str">
+        <v>3.7831021437578799E-2</v>
+      </c>
+      <c r="P33" s="43">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q33" s="6" t="str">
+        <v>1.9047619047619046E-2</v>
+      </c>
+      <c r="Q33" s="43">
         <f t="shared" si="19"/>
-        <v/>
+        <v>0.10632911392405063</v>
       </c>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
@@ -2468,52 +2670,52 @@
       <c r="G34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="6" t="str">
+      <c r="H34" s="43">
         <f t="shared" ref="H34:Q34" si="20">IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
-        <v/>
-      </c>
-      <c r="I34" s="6" t="str">
+        <v>8.9285714285714298E-3</v>
+      </c>
+      <c r="I34" s="43">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J34" s="6" t="str">
+        <v>1.0020040080160322E-2</v>
+      </c>
+      <c r="J34" s="43">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K34" s="6" t="str">
+        <v>7.9840319361277438E-3</v>
+      </c>
+      <c r="K34" s="43">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L34" s="6" t="str">
+        <v>1.0482180293501049E-2</v>
+      </c>
+      <c r="L34" s="43">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M34" s="6" t="str">
+        <v>1.3618677042801557E-2</v>
+      </c>
+      <c r="M34" s="43">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N34" s="6" t="str">
+        <v>9.5159288374017364E-3</v>
+      </c>
+      <c r="N34" s="43">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O34" s="6" t="str">
+        <v>1.2987012987012983E-2</v>
+      </c>
+      <c r="O34" s="43">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P34" s="6" t="str">
+        <v>9.4577553593947015E-3</v>
+      </c>
+      <c r="P34" s="43">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q34" s="6" t="str">
+        <v>6.3492063492063492E-3</v>
+      </c>
+      <c r="Q34" s="43">
         <f t="shared" si="20"/>
-        <v/>
+        <v>1.0126582278481013E-2</v>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="16" t="b">
+      <c r="D35" s="15" t="b">
         <f>D26=0</f>
         <v>0</v>
       </c>
@@ -2524,52 +2726,52 @@
       <c r="G35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="6" t="str">
+      <c r="H35" s="43">
         <f t="shared" ref="H35:Q35" si="21">IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
-        <v/>
-      </c>
-      <c r="I35" s="6" t="str">
+        <v>1.785714285714286E-2</v>
+      </c>
+      <c r="I35" s="43">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="J35" s="6" t="str">
+        <v>2.0040080160320644E-2</v>
+      </c>
+      <c r="J35" s="43">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="K35" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="K35" s="43">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L35" s="6" t="str">
+        <v>2.0964360587002098E-2</v>
+      </c>
+      <c r="L35" s="43">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="M35" s="6" t="str">
+        <v>2.7237354085603113E-2</v>
+      </c>
+      <c r="M35" s="43">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="N35" s="6" t="str">
+        <v>1.9031857674803473E-2</v>
+      </c>
+      <c r="N35" s="43">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="O35" s="6" t="str">
+        <v>2.5974025974025965E-2</v>
+      </c>
+      <c r="O35" s="43">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="P35" s="6" t="str">
+        <v>1.8915510718789403E-2</v>
+      </c>
+      <c r="P35" s="43">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q35" s="6" t="str">
+        <v>6.3492063492063502E-2</v>
+      </c>
+      <c r="Q35" s="43">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="16" t="b">
+      <c r="D36" s="15" t="b">
         <f>D21=0</f>
         <v>0</v>
       </c>
@@ -2580,52 +2782,52 @@
       <c r="G36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="6" t="str">
+      <c r="H36" s="43">
         <f t="shared" ref="H36:Q36" si="22">IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
-        <v/>
-      </c>
-      <c r="I36" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="I36" s="43">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="J36" s="6" t="str">
+        <v>8.0160320641282576E-3</v>
+      </c>
+      <c r="J36" s="43">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="K36" s="6" t="str">
+        <v>1.1976047904191616E-2</v>
+      </c>
+      <c r="K36" s="43">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L36" s="6" t="str">
+        <v>1.0482180293501049E-2</v>
+      </c>
+      <c r="L36" s="43">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M36" s="6" t="str">
+        <v>1.3618677042801557E-2</v>
+      </c>
+      <c r="M36" s="43">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="N36" s="6" t="str">
+        <v>1.0343400910219278E-2</v>
+      </c>
+      <c r="N36" s="43">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="O36" s="6" t="str">
+        <v>1.2987012987012983E-2</v>
+      </c>
+      <c r="O36" s="43">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="P36" s="6" t="str">
+        <v>1.0718789407313996E-2</v>
+      </c>
+      <c r="P36" s="43">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Q36" s="6" t="str">
+        <v>6.3492063492063492E-3</v>
+      </c>
+      <c r="Q36" s="43">
         <f t="shared" si="22"/>
-        <v/>
+        <v>2.2784810126582275E-2</v>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="40"/>
+      <c r="D37" s="29"/>
       <c r="G37" s="4" t="s">
         <v>22</v>
       </c>
@@ -2635,11 +2837,11 @@
       </c>
       <c r="I37" s="3">
         <f t="shared" ref="I37:Q37" si="23">IF(SUM(I27:I36)=0,1,SUM(I27:I36))</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="23"/>
@@ -2647,64 +2849,64 @@
       </c>
       <c r="L37" s="3">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="M37" s="3">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="N37" s="3">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="O37" s="3">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="P37" s="3">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="Q37" s="3">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="21" t="b">
+      <c r="D38" s="20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="22" t="b">
+      <c r="D39" s="21" t="b">
         <f>AND(D29=2,D30=2,I6=H7,H6=I7)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="21" t="b">
+      <c r="D40" s="20" t="b">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -2787,10 +2989,10 @@
       </c>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="39"/>
+      <c r="D42" s="28"/>
       <c r="F42" s="12">
         <f t="shared" ref="F42:F51" si="25">F6</f>
         <v>0</v>
@@ -2798,52 +3000,52 @@
       <c r="G42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="44">
         <f t="shared" ref="H42:L46" si="26">IF(OR($C6="",H6=""),"",H6*$C6)</f>
-        <v>0.125</v>
-      </c>
-      <c r="I42" s="6">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="I42" s="44">
         <f t="shared" si="26"/>
-        <v>0.375</v>
-      </c>
-      <c r="J42" s="6">
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="J42" s="44">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="6" t="str">
+        <v>2E-3</v>
+      </c>
+      <c r="K42" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="L42" s="6" t="str">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="L42" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M42" s="6" t="str">
+        <v>7.000000000000001E-3</v>
+      </c>
+      <c r="M42" s="44">
         <f t="shared" ref="M42:Q42" si="27">IF(OR($C6="",M6=""),"",M6*$C6)</f>
-        <v/>
-      </c>
-      <c r="N42" s="6" t="str">
+        <v>1.1500000000000002E-2</v>
+      </c>
+      <c r="N42" s="44">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O42" s="6" t="str">
+        <v>1.5E-3</v>
+      </c>
+      <c r="O42" s="44">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="P42" s="6" t="str">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P42" s="44">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="Q42" s="6" t="str">
+        <v>1E-3</v>
+      </c>
+      <c r="Q42" s="44">
         <f t="shared" si="27"/>
-        <v/>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="16" t="str">
+      <c r="D43" s="15" t="str">
         <f>IF(D36,LOG($D$30,2),"N/A")</f>
         <v>N/A</v>
       </c>
@@ -2854,52 +3056,52 @@
       <c r="G43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="44">
         <f t="shared" si="26"/>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="I43" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I43" s="44">
         <f t="shared" si="26"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="J43" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J43" s="44">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="6" t="str">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="K43" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="L43" s="6" t="str">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="L43" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M43" s="6" t="str">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="M43" s="44">
         <f t="shared" ref="M43:Q43" si="28">IF(OR($C7="",M7=""),"",M7*$C7)</f>
-        <v/>
-      </c>
-      <c r="N43" s="6" t="str">
+        <v>1.84E-2</v>
+      </c>
+      <c r="N43" s="44">
         <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="O43" s="6" t="str">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="O43" s="44">
         <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="P43" s="6" t="str">
+        <v>1.2E-2</v>
+      </c>
+      <c r="P43" s="44">
         <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q43" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="44">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="16" t="str">
+      <c r="D44" s="15" t="str">
         <f>IF(D36,LOG($D$29,2),"N/A")</f>
         <v>N/A</v>
       </c>
@@ -2910,45 +3112,45 @@
       <c r="G44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="44">
         <f t="shared" si="26"/>
-        <v>8.6000000000000007E-2</v>
-      </c>
-      <c r="I44" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I44" s="44">
         <f t="shared" si="26"/>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="J44" s="6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J44" s="44">
         <f t="shared" si="26"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="K44" s="6" t="str">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K44" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="L44" s="6" t="str">
+        <v>0.03</v>
+      </c>
+      <c r="L44" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M44" s="6" t="str">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="M44" s="44">
         <f t="shared" ref="M44:Q44" si="29">IF(OR($C8="",M8=""),"",M8*$C8)</f>
-        <v/>
-      </c>
-      <c r="N44" s="6" t="str">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="N44" s="44">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="O44" s="6" t="str">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="O44" s="44">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="P44" s="6" t="str">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P44" s="44">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="Q44" s="6" t="str">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q44" s="44">
         <f t="shared" si="29"/>
-        <v/>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.25">
@@ -2966,45 +3168,45 @@
       <c r="G45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="6" t="str">
+      <c r="H45" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I45" s="6" t="str">
+        <v>2.3000000000000003E-2</v>
+      </c>
+      <c r="I45" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="J45" s="6" t="str">
+        <v>1.1500000000000002E-2</v>
+      </c>
+      <c r="J45" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="K45" s="6" t="str">
+        <v>1.84E-2</v>
+      </c>
+      <c r="K45" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="L45" s="6" t="str">
+        <v>4.6000000000000006E-2</v>
+      </c>
+      <c r="L45" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M45" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="M45" s="44">
         <f t="shared" ref="M45:Q45" si="30">IF(OR($C9="",M9=""),"",M9*$C9)</f>
-        <v/>
-      </c>
-      <c r="N45" s="6" t="str">
+        <v>6.4400000000000013E-2</v>
+      </c>
+      <c r="N45" s="44">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="O45" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="O45" s="44">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="P45" s="6" t="str">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="P45" s="44">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="Q45" s="6" t="str">
+        <v>1.6100000000000003E-2</v>
+      </c>
+      <c r="Q45" s="44">
         <f t="shared" si="30"/>
-        <v/>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="46" spans="3:17" x14ac:dyDescent="0.25">
@@ -3022,45 +3224,45 @@
       <c r="G46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="6" t="str">
+      <c r="H46" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I46" s="6" t="str">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I46" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="J46" s="6" t="str">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="J46" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="K46" s="6" t="str">
+        <v>1.3200000000000002E-2</v>
+      </c>
+      <c r="K46" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="L46" s="6" t="str">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="L46" s="44">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M46" s="6" t="str">
+        <v>4.6200000000000005E-2</v>
+      </c>
+      <c r="M46" s="44">
         <f t="shared" ref="M46:Q46" si="31">IF(OR($C10="",M10=""),"",M10*$C10)</f>
-        <v/>
-      </c>
-      <c r="N46" s="6" t="str">
+        <v>7.5900000000000009E-2</v>
+      </c>
+      <c r="N46" s="44">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="O46" s="6" t="str">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="O46" s="44">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="P46" s="6" t="str">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="P46" s="44">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="Q46" s="6" t="str">
+        <v>6.6000000000000008E-3</v>
+      </c>
+      <c r="Q46" s="44">
         <f t="shared" si="31"/>
-        <v/>
+        <v>1.3200000000000002E-2</v>
       </c>
     </row>
     <row r="47" spans="3:17" x14ac:dyDescent="0.25">
@@ -3078,45 +3280,45 @@
       <c r="G47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="6" t="str">
+      <c r="H47" s="44">
         <f t="shared" ref="H47:Q47" si="32">IF(OR($C11="",H11=""),"",H11*$C11)</f>
-        <v/>
-      </c>
-      <c r="I47" s="6" t="str">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I47" s="44">
         <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J47" s="6" t="str">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J47" s="44">
         <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K47" s="6" t="str">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="K47" s="44">
         <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L47" s="6" t="str">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L47" s="44">
         <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M47" s="6" t="str">
+        <v>1.26E-2</v>
+      </c>
+      <c r="M47" s="44">
         <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="N47" s="6" t="str">
+        <v>2.07E-2</v>
+      </c>
+      <c r="N47" s="44">
         <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="O47" s="6" t="str">
+        <v>2.6999999999999997E-3</v>
+      </c>
+      <c r="O47" s="44">
         <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="P47" s="6" t="str">
+        <v>1.35E-2</v>
+      </c>
+      <c r="P47" s="44">
         <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="Q47" s="6" t="str">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q47" s="44">
         <f t="shared" si="32"/>
-        <v/>
+        <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="48" spans="3:17" x14ac:dyDescent="0.25">
@@ -3127,45 +3329,45 @@
       <c r="G48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="6" t="str">
+      <c r="H48" s="44">
         <f t="shared" ref="H48:Q48" si="33">IF(OR($C12="",H12=""),"",H12*$C12)</f>
-        <v/>
-      </c>
-      <c r="I48" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="I48" s="44">
         <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J48" s="6" t="str">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J48" s="44">
         <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K48" s="6" t="str">
+        <v>2.6999999999999997E-3</v>
+      </c>
+      <c r="K48" s="44">
         <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L48" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="L48" s="44">
         <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M48" s="6" t="str">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="M48" s="44">
         <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N48" s="6" t="str">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="N48" s="44">
         <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O48" s="6" t="str">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="O48" s="44">
         <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P48" s="6" t="str">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P48" s="44">
         <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q48" s="6" t="str">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="Q48" s="44">
         <f t="shared" si="33"/>
-        <v/>
+        <v>4.2000000000000006E-3</v>
       </c>
     </row>
     <row r="49" spans="6:17" x14ac:dyDescent="0.25">
@@ -3176,45 +3378,45 @@
       <c r="G49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="6" t="str">
+      <c r="H49" s="44">
         <f t="shared" ref="H49:Q49" si="34">IF(OR($C13="",H13=""),"",H13*$C13)</f>
-        <v/>
-      </c>
-      <c r="I49" s="6" t="str">
+        <v>1E-3</v>
+      </c>
+      <c r="I49" s="44">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J49" s="6" t="str">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J49" s="44">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K49" s="6" t="str">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K49" s="44">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L49" s="6" t="str">
+        <v>2E-3</v>
+      </c>
+      <c r="L49" s="44">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M49" s="6" t="str">
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="M49" s="44">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="N49" s="6" t="str">
+        <v>2.3E-3</v>
+      </c>
+      <c r="N49" s="44">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="O49" s="6" t="str">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O49" s="44">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="P49" s="6" t="str">
+        <v>1.5E-3</v>
+      </c>
+      <c r="P49" s="44">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="Q49" s="6" t="str">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Q49" s="44">
         <f t="shared" si="34"/>
-        <v/>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="50" spans="6:17" x14ac:dyDescent="0.25">
@@ -3225,45 +3427,45 @@
       <c r="G50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="6" t="str">
+      <c r="H50" s="44">
         <f t="shared" ref="H50:Q50" si="35">IF(OR($C14="",H14=""),"",H14*$C14)</f>
-        <v/>
-      </c>
-      <c r="I50" s="6" t="str">
+        <v>2E-3</v>
+      </c>
+      <c r="I50" s="44">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="J50" s="6" t="str">
+        <v>1E-3</v>
+      </c>
+      <c r="J50" s="44">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="K50" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="K50" s="44">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="L50" s="6" t="str">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L50" s="44">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="M50" s="6" t="str">
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="M50" s="44">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="N50" s="6" t="str">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="N50" s="44">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="O50" s="6" t="str">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="O50" s="44">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="P50" s="6" t="str">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P50" s="44">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="Q50" s="6" t="str">
+        <v>2E-3</v>
+      </c>
+      <c r="Q50" s="44">
         <f t="shared" si="35"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="6:17" x14ac:dyDescent="0.25">
@@ -3274,61 +3476,61 @@
       <c r="G51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="6" t="str">
+      <c r="H51" s="44">
         <f t="shared" ref="H51:Q51" si="36">IF(OR($C15="",H15=""),"",H15*$C15)</f>
-        <v/>
-      </c>
-      <c r="I51" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="I51" s="44">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="J51" s="6" t="str">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J51" s="44">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="K51" s="6" t="str">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="K51" s="44">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="L51" s="6" t="str">
+        <v>2E-3</v>
+      </c>
+      <c r="L51" s="44">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="M51" s="6" t="str">
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="M51" s="44">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="N51" s="6" t="str">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="N51" s="44">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="O51" s="6" t="str">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O51" s="44">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="P51" s="6" t="str">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="P51" s="44">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="Q51" s="6" t="str">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Q51" s="44">
         <f t="shared" si="36"/>
-        <v/>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="54" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
     </row>
     <row r="55" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G55" s="1" t="s">
@@ -3418,45 +3620,45 @@
       <c r="G57" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="44">
         <f>IF(H27&lt;&gt;"",IF(H27=0,0,LOG(1/H27,2)),"")</f>
-        <v>1.8024000401148395</v>
-      </c>
-      <c r="I57" s="6">
+        <v>4.485426827170242</v>
+      </c>
+      <c r="I57" s="44">
         <f t="shared" ref="I57:Q57" si="39">IF(I27&lt;&gt;"",IF(I27=0,0,LOG(1/I27,2)),"")</f>
-        <v>0.55777767139492607</v>
-      </c>
-      <c r="J57" s="6">
+        <v>4.3190398155625358</v>
+      </c>
+      <c r="J57" s="44">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="6" t="str">
+        <v>4.6467386983078462</v>
+      </c>
+      <c r="K57" s="44">
         <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L57" s="6" t="str">
+        <v>4.2539892662307874</v>
+      </c>
+      <c r="L57" s="44">
         <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M57" s="6" t="str">
+        <v>3.8763415322489112</v>
+      </c>
+      <c r="M57" s="44">
         <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="N57" s="6" t="str">
+        <v>4.3935117068212071</v>
+      </c>
+      <c r="N57" s="44">
         <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="O57" s="6" t="str">
+        <v>3.9448584458075393</v>
+      </c>
+      <c r="O57" s="44">
         <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="P57" s="6" t="str">
+        <v>4.402358365208098</v>
+      </c>
+      <c r="P57" s="44">
         <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Q57" s="6" t="str">
+        <v>4.9772799234999168</v>
+      </c>
+      <c r="Q57" s="44">
         <f t="shared" si="39"/>
-        <v/>
+        <v>4.3037807481771031</v>
       </c>
     </row>
     <row r="58" spans="6:17" x14ac:dyDescent="0.25">
@@ -3467,45 +3669,45 @@
       <c r="G58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="44">
         <f t="shared" ref="H58:Q66" si="40">IF(H28&lt;&gt;"",IF(H28=0,0,LOG(1/H28,2)),"")</f>
-        <v>0.95440313355988937</v>
-      </c>
-      <c r="I58" s="6">
-        <f t="shared" si="40"/>
-        <v>2.8797057662822882</v>
-      </c>
-      <c r="J58" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L58" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M58" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="N58" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="O58" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="P58" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Q58" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
+        <v>2.2223924213364481</v>
+      </c>
+      <c r="I58" s="44">
+        <f t="shared" si="40"/>
+        <v>3.640967910449898</v>
+      </c>
+      <c r="J58" s="44">
+        <f t="shared" si="40"/>
+        <v>3.9686667931952089</v>
+      </c>
+      <c r="K58" s="44">
+        <f t="shared" si="40"/>
+        <v>3.8978454560055114</v>
+      </c>
+      <c r="L58" s="44">
+        <f t="shared" si="40"/>
+        <v>5.005624549193878</v>
+      </c>
+      <c r="M58" s="44">
+        <f t="shared" si="40"/>
+        <v>3.7154398017085701</v>
+      </c>
+      <c r="N58" s="44">
+        <f t="shared" si="40"/>
+        <v>3.2667865406949019</v>
+      </c>
+      <c r="O58" s="44">
+        <f t="shared" si="40"/>
+        <v>3.7242864600954606</v>
+      </c>
+      <c r="P58" s="44">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="44">
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="6:17" x14ac:dyDescent="0.25">
@@ -3516,45 +3718,45 @@
       <c r="G59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="6">
-        <f t="shared" si="40"/>
-        <v>2.3419195700748285</v>
-      </c>
-      <c r="I59" s="6">
-        <f t="shared" si="40"/>
-        <v>2.4360991148066735</v>
-      </c>
-      <c r="J59" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L59" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M59" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="N59" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="O59" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="P59" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Q59" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
+      <c r="H59" s="44">
+        <f t="shared" si="40"/>
+        <v>2.9004643264490859</v>
+      </c>
+      <c r="I59" s="44">
+        <f t="shared" si="40"/>
+        <v>2.7340773148413793</v>
+      </c>
+      <c r="J59" s="44">
+        <f t="shared" si="40"/>
+        <v>3.0617761975866902</v>
+      </c>
+      <c r="K59" s="44">
+        <f t="shared" si="40"/>
+        <v>2.6690267655096309</v>
+      </c>
+      <c r="L59" s="44">
+        <f t="shared" si="40"/>
+        <v>2.2913790315277556</v>
+      </c>
+      <c r="M59" s="44">
+        <f t="shared" si="40"/>
+        <v>2.8085492061000514</v>
+      </c>
+      <c r="N59" s="44">
+        <f t="shared" si="40"/>
+        <v>2.3598959450863837</v>
+      </c>
+      <c r="O59" s="44">
+        <f t="shared" si="40"/>
+        <v>2.8173958644869419</v>
+      </c>
+      <c r="P59" s="44">
+        <f t="shared" si="40"/>
+        <v>3.3923174227787602</v>
+      </c>
+      <c r="Q59" s="44">
+        <f t="shared" si="40"/>
+        <v>2.7188182474559466</v>
       </c>
     </row>
     <row r="60" spans="6:17" x14ac:dyDescent="0.25">
@@ -3565,45 +3767,45 @@
       <c r="G60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I60" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J60" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K60" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L60" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M60" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="N60" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="O60" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="P60" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Q60" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
+      <c r="H60" s="44">
+        <f t="shared" si="40"/>
+        <v>2.2837929660005911</v>
+      </c>
+      <c r="I60" s="44">
+        <f t="shared" si="40"/>
+        <v>2.1174059543928849</v>
+      </c>
+      <c r="J60" s="44">
+        <f t="shared" si="40"/>
+        <v>1.4451048371381958</v>
+      </c>
+      <c r="K60" s="44">
+        <f t="shared" si="40"/>
+        <v>2.0523554050611366</v>
+      </c>
+      <c r="L60" s="44">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="44">
+        <f t="shared" si="40"/>
+        <v>1.9080848796509657</v>
+      </c>
+      <c r="N60" s="44">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="44">
+        <f t="shared" si="40"/>
+        <v>1.9376900982046534</v>
+      </c>
+      <c r="P60" s="44">
+        <f t="shared" si="40"/>
+        <v>0.96829114027266172</v>
+      </c>
+      <c r="Q60" s="44">
+        <f t="shared" si="40"/>
+        <v>2.1021468870074522</v>
       </c>
     </row>
     <row r="61" spans="6:17" x14ac:dyDescent="0.25">
@@ -3614,45 +3816,45 @@
       <c r="G61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H61" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I61" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J61" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K61" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L61" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M61" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="N61" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="O61" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="P61" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Q61" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
+      <c r="H61" s="44">
+        <f t="shared" si="40"/>
+        <v>1.7629608026991508</v>
+      </c>
+      <c r="I61" s="44">
+        <f t="shared" si="40"/>
+        <v>1.5965737910914448</v>
+      </c>
+      <c r="J61" s="44">
+        <f t="shared" si="40"/>
+        <v>1.924272673836755</v>
+      </c>
+      <c r="K61" s="44">
+        <f t="shared" si="40"/>
+        <v>1.5315232417596958</v>
+      </c>
+      <c r="L61" s="44">
+        <f t="shared" si="40"/>
+        <v>1.1538755077778207</v>
+      </c>
+      <c r="M61" s="44">
+        <f t="shared" si="40"/>
+        <v>1.6710456823501163</v>
+      </c>
+      <c r="N61" s="44">
+        <f t="shared" si="40"/>
+        <v>1.2223924213364483</v>
+      </c>
+      <c r="O61" s="44">
+        <f t="shared" si="40"/>
+        <v>1.6798923407370068</v>
+      </c>
+      <c r="P61" s="44">
+        <f t="shared" si="40"/>
+        <v>2.2548138990288256</v>
+      </c>
+      <c r="Q61" s="44">
+        <f t="shared" si="40"/>
+        <v>1.5813147237060114</v>
       </c>
     </row>
     <row r="62" spans="6:17" x14ac:dyDescent="0.25">
@@ -3663,45 +3865,45 @@
       <c r="G62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I62" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J62" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K62" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L62" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M62" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="N62" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="O62" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="P62" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Q62" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
+      <c r="H62" s="44">
+        <f t="shared" si="40"/>
+        <v>3.6374299206152916</v>
+      </c>
+      <c r="I62" s="44">
+        <f t="shared" si="40"/>
+        <v>3.4710429090075858</v>
+      </c>
+      <c r="J62" s="44">
+        <f t="shared" si="40"/>
+        <v>3.7987417917528967</v>
+      </c>
+      <c r="K62" s="44">
+        <f t="shared" si="40"/>
+        <v>3.405992359675837</v>
+      </c>
+      <c r="L62" s="44">
+        <f t="shared" si="40"/>
+        <v>3.0283446256939617</v>
+      </c>
+      <c r="M62" s="44">
+        <f t="shared" si="40"/>
+        <v>3.5455148002662575</v>
+      </c>
+      <c r="N62" s="44">
+        <f t="shared" si="40"/>
+        <v>3.0968615392525898</v>
+      </c>
+      <c r="O62" s="44">
+        <f t="shared" si="40"/>
+        <v>3.5543614586531485</v>
+      </c>
+      <c r="P62" s="44">
+        <f t="shared" si="40"/>
+        <v>4.1292830169449672</v>
+      </c>
+      <c r="Q62" s="44">
+        <f t="shared" si="40"/>
+        <v>3.4557838416221527</v>
       </c>
     </row>
     <row r="63" spans="6:17" x14ac:dyDescent="0.25">
@@ -3712,45 +3914,45 @@
       <c r="G63" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H63" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I63" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J63" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K63" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L63" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M63" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="N63" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="O63" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="P63" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Q63" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
+      <c r="H63" s="44">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="44">
+        <f t="shared" si="40"/>
+        <v>5.0560054097287424</v>
+      </c>
+      <c r="J63" s="44">
+        <f t="shared" si="40"/>
+        <v>4.2137792910317406</v>
+      </c>
+      <c r="K63" s="44">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="44">
+        <f t="shared" si="40"/>
+        <v>3.8356995477515659</v>
+      </c>
+      <c r="M63" s="44">
+        <f t="shared" si="40"/>
+        <v>5.1304773009874136</v>
+      </c>
+      <c r="N63" s="44">
+        <f t="shared" si="40"/>
+        <v>4.6818240399737459</v>
+      </c>
+      <c r="O63" s="44">
+        <f t="shared" si="40"/>
+        <v>4.7242864600954606</v>
+      </c>
+      <c r="P63" s="44">
+        <f t="shared" si="40"/>
+        <v>5.7142455176661233</v>
+      </c>
+      <c r="Q63" s="44">
+        <f t="shared" si="40"/>
+        <v>3.233391420285705</v>
       </c>
     </row>
     <row r="64" spans="6:17" x14ac:dyDescent="0.25">
@@ -3761,45 +3963,45 @@
       <c r="G64" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H64" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I64" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J64" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K64" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L64" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M64" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="N64" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="O64" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="P64" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Q64" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
+      <c r="H64" s="44">
+        <f t="shared" si="40"/>
+        <v>6.8073549220576037</v>
+      </c>
+      <c r="I64" s="44">
+        <f t="shared" si="40"/>
+        <v>6.6409679104498984</v>
+      </c>
+      <c r="J64" s="44">
+        <f t="shared" si="40"/>
+        <v>6.9686667931952089</v>
+      </c>
+      <c r="K64" s="44">
+        <f t="shared" si="40"/>
+        <v>6.5759173611181501</v>
+      </c>
+      <c r="L64" s="44">
+        <f t="shared" si="40"/>
+        <v>6.1982696271362743</v>
+      </c>
+      <c r="M64" s="44">
+        <f t="shared" si="40"/>
+        <v>6.7154398017085706</v>
+      </c>
+      <c r="N64" s="44">
+        <f t="shared" si="40"/>
+        <v>6.2667865406949019</v>
+      </c>
+      <c r="O64" s="44">
+        <f t="shared" si="40"/>
+        <v>6.7242864600954606</v>
+      </c>
+      <c r="P64" s="44">
+        <f t="shared" si="40"/>
+        <v>7.2992080183872794</v>
+      </c>
+      <c r="Q64" s="44">
+        <f t="shared" si="40"/>
+        <v>6.6257088430644657</v>
       </c>
     </row>
     <row r="65" spans="6:17" x14ac:dyDescent="0.25">
@@ -3810,45 +4012,45 @@
       <c r="G65" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I65" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J65" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K65" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L65" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M65" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="N65" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="O65" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="P65" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Q65" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
+      <c r="H65" s="44">
+        <f t="shared" si="40"/>
+        <v>5.8073549220576037</v>
+      </c>
+      <c r="I65" s="44">
+        <f t="shared" si="40"/>
+        <v>5.6409679104498984</v>
+      </c>
+      <c r="J65" s="44">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="44">
+        <f t="shared" si="40"/>
+        <v>5.5759173611181492</v>
+      </c>
+      <c r="L65" s="44">
+        <f t="shared" si="40"/>
+        <v>5.1982696271362743</v>
+      </c>
+      <c r="M65" s="44">
+        <f t="shared" si="40"/>
+        <v>5.7154398017085706</v>
+      </c>
+      <c r="N65" s="44">
+        <f t="shared" si="40"/>
+        <v>5.2667865406949019</v>
+      </c>
+      <c r="O65" s="44">
+        <f t="shared" si="40"/>
+        <v>5.7242864600954606</v>
+      </c>
+      <c r="P65" s="44">
+        <f t="shared" si="40"/>
+        <v>3.9772799234999163</v>
+      </c>
+      <c r="Q65" s="44">
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="6:17" x14ac:dyDescent="0.25">
@@ -3859,61 +4061,61 @@
       <c r="G66" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H66" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I66" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J66" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K66" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L66" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M66" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="N66" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="O66" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="P66" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Q66" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
+      <c r="H66" s="44">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="44">
+        <f t="shared" si="40"/>
+        <v>6.9628960053372611</v>
+      </c>
+      <c r="J66" s="44">
+        <f t="shared" si="40"/>
+        <v>6.3837042924740528</v>
+      </c>
+      <c r="K66" s="44">
+        <f t="shared" si="40"/>
+        <v>6.5759173611181501</v>
+      </c>
+      <c r="L66" s="44">
+        <f t="shared" si="40"/>
+        <v>6.1982696271362743</v>
+      </c>
+      <c r="M66" s="44">
+        <f t="shared" si="40"/>
+        <v>6.5951455679908584</v>
+      </c>
+      <c r="N66" s="44">
+        <f t="shared" si="40"/>
+        <v>6.2667865406949019</v>
+      </c>
+      <c r="O66" s="44">
+        <f t="shared" si="40"/>
+        <v>6.5437142144536402</v>
+      </c>
+      <c r="P66" s="44">
+        <f t="shared" si="40"/>
+        <v>7.2992080183872794</v>
+      </c>
+      <c r="Q66" s="44">
+        <f t="shared" si="40"/>
+        <v>5.4557838416221527</v>
       </c>
     </row>
     <row r="69" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G69" s="26" t="s">
+      <c r="G69" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
     </row>
     <row r="70" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G70" s="7" t="s">
@@ -3954,61 +4156,61 @@
       <c r="G71" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71" s="44">
         <f>SUMPRODUCT(H27:H36,H57:H66)</f>
-        <v>1.4712059474581771</v>
-      </c>
-      <c r="I71" s="6">
+        <v>2.5101374634237343</v>
+      </c>
+      <c r="I71" s="44">
         <f t="shared" ref="I71:Q71" si="41">SUMPRODUCT(I27:I36,I57:I66)</f>
-        <v>1.2203381683959231</v>
-      </c>
-      <c r="J71" s="6">
+        <v>2.6354909527751564</v>
+      </c>
+      <c r="J71" s="44">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="6">
+        <v>2.475540128686768</v>
+      </c>
+      <c r="K71" s="44">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="6">
+        <v>2.5047547244052923</v>
+      </c>
+      <c r="L71" s="44">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="6">
+        <v>2.3566623185223672</v>
+      </c>
+      <c r="M71" s="44">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="6">
+        <v>2.6169396211184122</v>
+      </c>
+      <c r="N71" s="44">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="6">
+        <v>2.4231213736489545</v>
+      </c>
+      <c r="O71" s="44">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="P71" s="6">
+        <v>2.6430565878354844</v>
+      </c>
+      <c r="P71" s="44">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Q71" s="6">
+        <v>2.1384441612467193</v>
+      </c>
+      <c r="Q71" s="44">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>2.499117252764639</v>
       </c>
     </row>
     <row r="74" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G74" s="24" t="s">
+      <c r="G74" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
     </row>
     <row r="75" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G75" s="1" t="s">
@@ -4098,45 +4300,45 @@
       <c r="G77" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H77" s="44">
         <f>IF(H42="","",IFERROR(LOG(H42/(H$18*$C6),2),0))</f>
-        <v>-0.80240004011483934</v>
-      </c>
-      <c r="I77" s="6">
+        <v>-0.16349873228287934</v>
+      </c>
+      <c r="I77" s="44">
         <f t="shared" ref="I77:Q77" si="43">IF(I42="","",IFERROR(LOG(I42/(I$18*$C6),2),0))</f>
-        <v>0.44222232860507393</v>
-      </c>
-      <c r="J77" s="6">
+        <v>2.8882793248266722E-3</v>
+      </c>
+      <c r="J77" s="44">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="6" t="str">
+        <v>-0.32481060342048396</v>
+      </c>
+      <c r="K77" s="44">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L77" s="6" t="str">
+        <v>6.7938828656575898E-2</v>
+      </c>
+      <c r="L77" s="44">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M77" s="6" t="str">
+        <v>0.44558656263845076</v>
+      </c>
+      <c r="M77" s="44">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N77" s="6" t="str">
+        <v>-7.1583611933845159E-2</v>
+      </c>
+      <c r="N77" s="44">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="O77" s="6" t="str">
+        <v>0.37706964907982288</v>
+      </c>
+      <c r="O77" s="44">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="P77" s="6" t="str">
+        <v>-8.0430270320735853E-2</v>
+      </c>
+      <c r="P77" s="44">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="Q77" s="6" t="str">
+        <v>-0.65535182861255425</v>
+      </c>
+      <c r="Q77" s="44">
         <f t="shared" si="43"/>
-        <v/>
+        <v>1.8147346710259204E-2</v>
       </c>
     </row>
     <row r="78" spans="6:17" x14ac:dyDescent="0.25">
@@ -4147,45 +4349,45 @@
       <c r="G78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H78" s="44">
         <f t="shared" ref="H78:Q86" si="45">IF(H43="","",IFERROR(LOG(H43/(H$18*$C7),2),0))</f>
-        <v>0.78256246060631673</v>
-      </c>
-      <c r="I78" s="6">
-        <f t="shared" si="45"/>
-        <v>-1.1427401721160819</v>
-      </c>
-      <c r="J78" s="6">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L78" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M78" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="N78" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="O78" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="P78" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="Q78" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
+        <v>1.4214637684382767</v>
+      </c>
+      <c r="I78" s="44">
+        <f t="shared" si="45"/>
+        <v>2.8882793248266722E-3</v>
+      </c>
+      <c r="J78" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.32481060342048373</v>
+      </c>
+      <c r="K78" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.25398926623078677</v>
+      </c>
+      <c r="L78" s="44">
+        <f t="shared" si="45"/>
+        <v>-1.3617683594191534</v>
+      </c>
+      <c r="M78" s="44">
+        <f t="shared" si="45"/>
+        <v>-7.1583611933845326E-2</v>
+      </c>
+      <c r="N78" s="44">
+        <f t="shared" si="45"/>
+        <v>0.37706964907982288</v>
+      </c>
+      <c r="O78" s="44">
+        <f t="shared" si="45"/>
+        <v>-8.0430270320735686E-2</v>
+      </c>
+      <c r="P78" s="44">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="44">
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="6:17" x14ac:dyDescent="0.25">
@@ -4196,45 +4398,45 @@
       <c r="G79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="6">
-        <f t="shared" si="45"/>
-        <v>-1.9991475187465951E-2</v>
-      </c>
-      <c r="I79" s="6">
-        <f t="shared" si="45"/>
-        <v>-0.11417101991931113</v>
-      </c>
-      <c r="J79" s="6">
-        <f t="shared" si="45"/>
-        <v>2.3219280948873622</v>
-      </c>
-      <c r="K79" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L79" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M79" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="N79" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="O79" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="P79" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="Q79" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
+      <c r="H79" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.16349873228287934</v>
+      </c>
+      <c r="I79" s="44">
+        <f t="shared" si="45"/>
+        <v>2.8882793248266722E-3</v>
+      </c>
+      <c r="J79" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.32481060342048396</v>
+      </c>
+      <c r="K79" s="44">
+        <f t="shared" si="45"/>
+        <v>6.7938828656575592E-2</v>
+      </c>
+      <c r="L79" s="44">
+        <f t="shared" si="45"/>
+        <v>0.44558656263845076</v>
+      </c>
+      <c r="M79" s="44">
+        <f t="shared" si="45"/>
+        <v>-7.1583611933844993E-2</v>
+      </c>
+      <c r="N79" s="44">
+        <f t="shared" si="45"/>
+        <v>0.3770696490798231</v>
+      </c>
+      <c r="O79" s="44">
+        <f t="shared" si="45"/>
+        <v>-8.0430270320735686E-2</v>
+      </c>
+      <c r="P79" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.65535182861255425</v>
+      </c>
+      <c r="Q79" s="44">
+        <f t="shared" si="45"/>
+        <v>1.814734671025952E-2</v>
       </c>
     </row>
     <row r="80" spans="6:17" x14ac:dyDescent="0.25">
@@ -4245,45 +4447,45 @@
       <c r="G80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I80" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J80" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K80" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L80" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M80" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="N80" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="O80" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="P80" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="Q80" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
+      <c r="H80" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.16349873228287934</v>
+      </c>
+      <c r="I80" s="44">
+        <f t="shared" si="45"/>
+        <v>2.8882793248266722E-3</v>
+      </c>
+      <c r="J80" s="44">
+        <f t="shared" si="45"/>
+        <v>0.67518939657951615</v>
+      </c>
+      <c r="K80" s="44">
+        <f t="shared" si="45"/>
+        <v>6.7938828656575592E-2</v>
+      </c>
+      <c r="L80" s="44">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="44">
+        <f t="shared" si="45"/>
+        <v>0.21220935406674638</v>
+      </c>
+      <c r="N80" s="44">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="44">
+        <f t="shared" si="45"/>
+        <v>0.18260413551305812</v>
+      </c>
+      <c r="P80" s="44">
+        <f t="shared" si="45"/>
+        <v>1.15200309344505</v>
+      </c>
+      <c r="Q80" s="44">
+        <f t="shared" si="45"/>
+        <v>1.8147346710259204E-2</v>
       </c>
     </row>
     <row r="81" spans="3:17" x14ac:dyDescent="0.25">
@@ -4294,45 +4496,45 @@
       <c r="G81" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I81" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J81" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K81" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L81" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M81" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="N81" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="O81" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="P81" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="Q81" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
+      <c r="H81" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.16349873228287934</v>
+      </c>
+      <c r="I81" s="44">
+        <f t="shared" si="45"/>
+        <v>2.8882793248263526E-3</v>
+      </c>
+      <c r="J81" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.32481060342048373</v>
+      </c>
+      <c r="K81" s="44">
+        <f t="shared" si="45"/>
+        <v>6.7938828656575287E-2</v>
+      </c>
+      <c r="L81" s="44">
+        <f t="shared" si="45"/>
+        <v>0.44558656263845076</v>
+      </c>
+      <c r="M81" s="44">
+        <f t="shared" si="45"/>
+        <v>-7.1583611933845159E-2</v>
+      </c>
+      <c r="N81" s="44">
+        <f t="shared" si="45"/>
+        <v>0.3770696490798231</v>
+      </c>
+      <c r="O81" s="44">
+        <f t="shared" si="45"/>
+        <v>-8.0430270320735686E-2</v>
+      </c>
+      <c r="P81" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.65535182861255392</v>
+      </c>
+      <c r="Q81" s="44">
+        <f t="shared" si="45"/>
+        <v>1.814734671025952E-2</v>
       </c>
     </row>
     <row r="82" spans="3:17" x14ac:dyDescent="0.25">
@@ -4343,45 +4545,45 @@
       <c r="G82" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I82" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J82" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K82" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L82" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M82" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="N82" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="O82" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="P82" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="Q82" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
+      <c r="H82" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.16349873228287951</v>
+      </c>
+      <c r="I82" s="44">
+        <f t="shared" si="45"/>
+        <v>2.8882793248263526E-3</v>
+      </c>
+      <c r="J82" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.32481060342048373</v>
+      </c>
+      <c r="K82" s="44">
+        <f t="shared" si="45"/>
+        <v>6.7938828656575287E-2</v>
+      </c>
+      <c r="L82" s="44">
+        <f t="shared" si="45"/>
+        <v>0.44558656263845076</v>
+      </c>
+      <c r="M82" s="44">
+        <f t="shared" si="45"/>
+        <v>-7.1583611933845159E-2</v>
+      </c>
+      <c r="N82" s="44">
+        <f t="shared" si="45"/>
+        <v>0.37706964907982288</v>
+      </c>
+      <c r="O82" s="44">
+        <f t="shared" si="45"/>
+        <v>-8.0430270320735686E-2</v>
+      </c>
+      <c r="P82" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.65535182861255425</v>
+      </c>
+      <c r="Q82" s="44">
+        <f t="shared" si="45"/>
+        <v>1.814734671025952E-2</v>
       </c>
     </row>
     <row r="83" spans="3:17" x14ac:dyDescent="0.25">
@@ -4392,45 +4594,45 @@
       <c r="G83" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I83" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J83" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K83" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L83" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M83" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="N83" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="O83" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="P83" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="Q83" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
+      <c r="H83" s="44">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="44">
+        <f t="shared" si="45"/>
+        <v>2.8882793248266722E-3</v>
+      </c>
+      <c r="J83" s="44">
+        <f t="shared" si="45"/>
+        <v>0.84511439802182831</v>
+      </c>
+      <c r="K83" s="44">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="44">
+        <f t="shared" si="45"/>
+        <v>1.2231941413020029</v>
+      </c>
+      <c r="M83" s="44">
+        <f t="shared" si="45"/>
+        <v>-7.1583611933845159E-2</v>
+      </c>
+      <c r="N83" s="44">
+        <f t="shared" si="45"/>
+        <v>0.3770696490798231</v>
+      </c>
+      <c r="O83" s="44">
+        <f t="shared" si="45"/>
+        <v>0.3346072289581084</v>
+      </c>
+      <c r="P83" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.65535182861255425</v>
+      </c>
+      <c r="Q83" s="44">
+        <f t="shared" si="45"/>
+        <v>1.8255022687678637</v>
       </c>
     </row>
     <row r="84" spans="3:17" x14ac:dyDescent="0.25">
@@ -4441,45 +4643,45 @@
       <c r="G84" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H84" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I84" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J84" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K84" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L84" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M84" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="N84" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="O84" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="P84" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="Q84" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
+      <c r="H84" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.16349873228287951</v>
+      </c>
+      <c r="I84" s="44">
+        <f t="shared" si="45"/>
+        <v>2.8882793248266722E-3</v>
+      </c>
+      <c r="J84" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.32481060342048373</v>
+      </c>
+      <c r="K84" s="44">
+        <f t="shared" si="45"/>
+        <v>6.7938828656575592E-2</v>
+      </c>
+      <c r="L84" s="44">
+        <f t="shared" si="45"/>
+        <v>0.44558656263845076</v>
+      </c>
+      <c r="M84" s="44">
+        <f t="shared" si="45"/>
+        <v>-7.1583611933845326E-2</v>
+      </c>
+      <c r="N84" s="44">
+        <f t="shared" si="45"/>
+        <v>0.37706964907982288</v>
+      </c>
+      <c r="O84" s="44">
+        <f t="shared" si="45"/>
+        <v>-8.0430270320735686E-2</v>
+      </c>
+      <c r="P84" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.65535182861255425</v>
+      </c>
+      <c r="Q84" s="44">
+        <f t="shared" si="45"/>
+        <v>1.814734671025952E-2</v>
       </c>
     </row>
     <row r="85" spans="3:17" x14ac:dyDescent="0.25">
@@ -4490,45 +4692,45 @@
       <c r="G85" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H85" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I85" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J85" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K85" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L85" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M85" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="N85" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="O85" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="P85" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="Q85" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
+      <c r="H85" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.16349873228287951</v>
+      </c>
+      <c r="I85" s="44">
+        <f t="shared" si="45"/>
+        <v>2.8882793248266722E-3</v>
+      </c>
+      <c r="J85" s="44">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="44">
+        <f t="shared" si="45"/>
+        <v>6.7938828656575592E-2</v>
+      </c>
+      <c r="L85" s="44">
+        <f t="shared" si="45"/>
+        <v>0.44558656263845076</v>
+      </c>
+      <c r="M85" s="44">
+        <f t="shared" si="45"/>
+        <v>-7.1583611933845326E-2</v>
+      </c>
+      <c r="N85" s="44">
+        <f t="shared" si="45"/>
+        <v>0.37706964907982288</v>
+      </c>
+      <c r="O85" s="44">
+        <f t="shared" si="45"/>
+        <v>-8.0430270320735686E-2</v>
+      </c>
+      <c r="P85" s="44">
+        <f t="shared" si="45"/>
+        <v>1.6665762662748083</v>
+      </c>
+      <c r="Q85" s="44">
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="3:17" x14ac:dyDescent="0.25">
@@ -4539,65 +4741,65 @@
       <c r="G86" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H86" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I86" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J86" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K86" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L86" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M86" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="N86" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="O86" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="P86" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="Q86" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
+      <c r="H86" s="44">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.3190398155625358</v>
+      </c>
+      <c r="J86" s="44">
+        <f t="shared" si="45"/>
+        <v>0.26015189730067234</v>
+      </c>
+      <c r="K86" s="44">
+        <f t="shared" si="45"/>
+        <v>6.7938828656575592E-2</v>
+      </c>
+      <c r="L86" s="44">
+        <f t="shared" si="45"/>
+        <v>0.44558656263845076</v>
+      </c>
+      <c r="M86" s="44">
+        <f t="shared" si="45"/>
+        <v>4.8710621783866495E-2</v>
+      </c>
+      <c r="N86" s="44">
+        <f t="shared" si="45"/>
+        <v>0.37706964907982288</v>
+      </c>
+      <c r="O86" s="44">
+        <f t="shared" si="45"/>
+        <v>0.10014197532108511</v>
+      </c>
+      <c r="P86" s="44">
+        <f t="shared" si="45"/>
+        <v>-0.65535182861255425</v>
+      </c>
+      <c r="Q86" s="44">
+        <f t="shared" si="45"/>
+        <v>1.1880723481525715</v>
       </c>
     </row>
     <row r="89" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D89" s="25"/>
-      <c r="G89" s="24" t="s">
+      <c r="D89" s="32"/>
+      <c r="G89" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="31"/>
+      <c r="M89" s="31"/>
+      <c r="N89" s="31"/>
+      <c r="O89" s="31"/>
+      <c r="P89" s="31"/>
+      <c r="Q89" s="31"/>
     </row>
     <row r="90" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C90" s="4"/>
@@ -4689,9 +4891,9 @@
       <c r="C92" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="44">
         <f t="shared" ref="D92:D101" si="47">SUM(H92:Q92)</f>
-        <v>0.81127812445913272</v>
+        <v>2.9441499532200575</v>
       </c>
       <c r="F92" s="12">
         <f>F42</f>
@@ -4700,54 +4902,54 @@
       <c r="G92" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H92" s="44">
         <f t="shared" ref="H92:L96" si="48">IF(H6="","",IFERROR(H6*LOG(1/H6,2),0))</f>
-        <v>0.5</v>
-      </c>
-      <c r="I92" s="6">
+        <v>0.33219280948873631</v>
+      </c>
+      <c r="I92" s="44">
         <f t="shared" si="48"/>
-        <v>0.31127812445913278</v>
-      </c>
-      <c r="J92" s="6">
+        <v>0.21609640474436814</v>
+      </c>
+      <c r="J92" s="44">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="K92" s="6" t="str">
+        <v>0.18575424759098899</v>
+      </c>
+      <c r="K92" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L92" s="6" t="str">
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="L92" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M92" s="6" t="str">
+        <v>0.39711017748039695</v>
+      </c>
+      <c r="M92" s="44">
         <f t="shared" ref="M92:Q92" si="49">IF(M6="","",IFERROR(M6*LOG(1/M6,2),0))</f>
-        <v/>
-      </c>
-      <c r="N92" s="6" t="str">
+        <v>0.48766767375507375</v>
+      </c>
+      <c r="N92" s="44">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="O92" s="6" t="str">
+        <v>0.15176681067160708</v>
+      </c>
+      <c r="O92" s="44">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="P92" s="6" t="str">
+        <v>0.41054483912493089</v>
+      </c>
+      <c r="P92" s="44">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="Q92" s="6" t="str">
+        <v>0.11287712379549449</v>
+      </c>
+      <c r="Q92" s="44">
         <f t="shared" si="49"/>
-        <v/>
+        <v>0.18575424759098899</v>
       </c>
     </row>
     <row r="93" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="44">
         <f t="shared" si="47"/>
-        <v>0.81127812445913272</v>
+        <v>2.5816908920917756</v>
       </c>
       <c r="F93" s="12">
         <f t="shared" ref="F93:F101" si="50">F43</f>
@@ -4756,54 +4958,54 @@
       <c r="G93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H93" s="6">
+      <c r="H93" s="44">
         <f t="shared" si="48"/>
-        <v>0.31127812445913278</v>
-      </c>
-      <c r="I93" s="6">
+        <v>0.52108967824986185</v>
+      </c>
+      <c r="I93" s="44">
         <f t="shared" si="48"/>
-        <v>0.5</v>
-      </c>
-      <c r="J93" s="6">
+        <v>0.21609640474436814</v>
+      </c>
+      <c r="J93" s="44">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="K93" s="6" t="str">
+        <v>0.18575424759098899</v>
+      </c>
+      <c r="K93" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L93" s="6" t="str">
+        <v>0.42301699036395596</v>
+      </c>
+      <c r="L93" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M93" s="6" t="str">
+        <v>0.18575424759098899</v>
+      </c>
+      <c r="M93" s="44">
         <f t="shared" ref="H93:Q101" si="51">IF(M7="","",IFERROR(M7*LOG(1/M7,2),0))</f>
-        <v/>
-      </c>
-      <c r="N93" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="O93" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="P93" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="Q93" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+        <v>0.48766767375507375</v>
+      </c>
+      <c r="N93" s="44">
+        <f t="shared" si="51"/>
+        <v>0.15176681067160708</v>
+      </c>
+      <c r="O93" s="44">
+        <f t="shared" si="51"/>
+        <v>0.41054483912493089</v>
+      </c>
+      <c r="P93" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C94" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="44">
         <f t="shared" si="47"/>
-        <v>1.2625276708040905</v>
+        <v>2.9441499532200575</v>
       </c>
       <c r="F94" s="12">
         <f t="shared" si="50"/>
@@ -4812,54 +5014,54 @@
       <c r="G94" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H94" s="6">
+      <c r="H94" s="44">
         <f t="shared" si="48"/>
-        <v>0.52356431708122952</v>
-      </c>
-      <c r="I94" s="6">
+        <v>0.33219280948873631</v>
+      </c>
+      <c r="I94" s="44">
         <f t="shared" si="48"/>
-        <v>0.49542973237964683</v>
-      </c>
-      <c r="J94" s="6">
+        <v>0.21609640474436814</v>
+      </c>
+      <c r="J94" s="44">
         <f t="shared" si="48"/>
-        <v>0.2435336213432141</v>
-      </c>
-      <c r="K94" s="6" t="str">
+        <v>0.18575424759098899</v>
+      </c>
+      <c r="K94" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L94" s="6" t="str">
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="L94" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M94" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N94" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="O94" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="P94" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="Q94" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+        <v>0.39711017748039695</v>
+      </c>
+      <c r="M94" s="44">
+        <f t="shared" si="51"/>
+        <v>0.48766767375507375</v>
+      </c>
+      <c r="N94" s="44">
+        <f t="shared" si="51"/>
+        <v>0.15176681067160708</v>
+      </c>
+      <c r="O94" s="44">
+        <f t="shared" si="51"/>
+        <v>0.41054483912493089</v>
+      </c>
+      <c r="P94" s="44">
+        <f t="shared" si="51"/>
+        <v>0.11287712379549449</v>
+      </c>
+      <c r="Q94" s="44">
+        <f t="shared" si="51"/>
+        <v>0.18575424759098899</v>
       </c>
     </row>
     <row r="95" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C95" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="44">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2.71802063358437</v>
       </c>
       <c r="F95" s="12">
         <f t="shared" si="50"/>
@@ -4868,54 +5070,54 @@
       <c r="G95" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H95" s="6" t="str">
+      <c r="H95" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I95" s="6" t="str">
+        <v>0.33219280948873631</v>
+      </c>
+      <c r="I95" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J95" s="6" t="str">
+        <v>0.21609640474436814</v>
+      </c>
+      <c r="J95" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K95" s="6" t="str">
+        <v>0.29150849518197802</v>
+      </c>
+      <c r="K95" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L95" s="6" t="str">
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="L95" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M95" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N95" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="O95" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="P95" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="Q95" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="44">
+        <f t="shared" si="51"/>
+        <v>0.51422035496079377</v>
+      </c>
+      <c r="N95" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="44">
+        <f t="shared" si="51"/>
+        <v>0.4453076138998342</v>
+      </c>
+      <c r="P95" s="44">
+        <f t="shared" si="51"/>
+        <v>0.26855508874019846</v>
+      </c>
+      <c r="Q95" s="44">
+        <f t="shared" si="51"/>
+        <v>0.18575424759098899</v>
       </c>
     </row>
     <row r="96" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C96" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="44">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2.9441499532200575</v>
       </c>
       <c r="F96" s="12">
         <f t="shared" si="50"/>
@@ -4924,54 +5126,54 @@
       <c r="G96" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H96" s="6" t="str">
+      <c r="H96" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I96" s="6" t="str">
+        <v>0.33219280948873631</v>
+      </c>
+      <c r="I96" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J96" s="6" t="str">
+        <v>0.21609640474436814</v>
+      </c>
+      <c r="J96" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K96" s="6" t="str">
+        <v>0.18575424759098899</v>
+      </c>
+      <c r="K96" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L96" s="6" t="str">
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="L96" s="44">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M96" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N96" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="O96" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="P96" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="Q96" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+        <v>0.39711017748039695</v>
+      </c>
+      <c r="M96" s="44">
+        <f t="shared" si="51"/>
+        <v>0.48766767375507375</v>
+      </c>
+      <c r="N96" s="44">
+        <f t="shared" si="51"/>
+        <v>0.15176681067160708</v>
+      </c>
+      <c r="O96" s="44">
+        <f t="shared" si="51"/>
+        <v>0.41054483912493089</v>
+      </c>
+      <c r="P96" s="44">
+        <f t="shared" si="51"/>
+        <v>0.11287712379549449</v>
+      </c>
+      <c r="Q96" s="44">
+        <f t="shared" si="51"/>
+        <v>0.18575424759098899</v>
       </c>
     </row>
     <row r="97" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C97" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="44">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2.9441499532200575</v>
       </c>
       <c r="F97" s="12">
         <f t="shared" si="50"/>
@@ -4980,54 +5182,54 @@
       <c r="G97" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H97" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I97" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J97" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K97" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L97" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M97" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N97" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="O97" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="P97" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="Q97" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+      <c r="H97" s="44">
+        <f t="shared" si="51"/>
+        <v>0.33219280948873631</v>
+      </c>
+      <c r="I97" s="44">
+        <f t="shared" si="51"/>
+        <v>0.21609640474436814</v>
+      </c>
+      <c r="J97" s="44">
+        <f t="shared" si="51"/>
+        <v>0.18575424759098899</v>
+      </c>
+      <c r="K97" s="44">
+        <f t="shared" si="51"/>
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="L97" s="44">
+        <f t="shared" si="51"/>
+        <v>0.39711017748039695</v>
+      </c>
+      <c r="M97" s="44">
+        <f t="shared" si="51"/>
+        <v>0.48766767375507375</v>
+      </c>
+      <c r="N97" s="44">
+        <f t="shared" si="51"/>
+        <v>0.15176681067160708</v>
+      </c>
+      <c r="O97" s="44">
+        <f t="shared" si="51"/>
+        <v>0.41054483912493089</v>
+      </c>
+      <c r="P97" s="44">
+        <f t="shared" si="51"/>
+        <v>0.11287712379549449</v>
+      </c>
+      <c r="Q97" s="44">
+        <f t="shared" si="51"/>
+        <v>0.18575424759098899</v>
       </c>
     </row>
     <row r="98" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C98" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="44">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2.6366921017471863</v>
       </c>
       <c r="F98" s="12">
         <f t="shared" si="50"/>
@@ -5036,54 +5238,54 @@
       <c r="G98" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H98" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I98" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J98" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K98" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L98" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M98" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N98" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="O98" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="P98" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="Q98" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+      <c r="H98" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="44">
+        <f t="shared" si="51"/>
+        <v>0.21609640474436814</v>
+      </c>
+      <c r="J98" s="44">
+        <f t="shared" si="51"/>
+        <v>0.31265380694991707</v>
+      </c>
+      <c r="K98" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="44">
+        <f t="shared" si="51"/>
+        <v>0.49413448537285648</v>
+      </c>
+      <c r="M98" s="44">
+        <f t="shared" si="51"/>
+        <v>0.48766767375507375</v>
+      </c>
+      <c r="N98" s="44">
+        <f t="shared" si="51"/>
+        <v>0.15176681067160708</v>
+      </c>
+      <c r="O98" s="44">
+        <f t="shared" si="51"/>
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="P98" s="44">
+        <f t="shared" si="51"/>
+        <v>0.11287712379549449</v>
+      </c>
+      <c r="Q98" s="44">
+        <f t="shared" si="51"/>
+        <v>0.39711017748039695</v>
       </c>
     </row>
     <row r="99" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C99" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="44">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2.9441499532200575</v>
       </c>
       <c r="F99" s="12">
         <f t="shared" si="50"/>
@@ -5092,54 +5294,54 @@
       <c r="G99" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H99" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I99" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J99" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K99" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L99" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M99" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N99" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="O99" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="P99" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="Q99" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+      <c r="H99" s="44">
+        <f t="shared" si="51"/>
+        <v>0.33219280948873631</v>
+      </c>
+      <c r="I99" s="44">
+        <f t="shared" si="51"/>
+        <v>0.21609640474436814</v>
+      </c>
+      <c r="J99" s="44">
+        <f t="shared" si="51"/>
+        <v>0.18575424759098899</v>
+      </c>
+      <c r="K99" s="44">
+        <f t="shared" si="51"/>
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="L99" s="44">
+        <f t="shared" si="51"/>
+        <v>0.39711017748039695</v>
+      </c>
+      <c r="M99" s="44">
+        <f t="shared" si="51"/>
+        <v>0.48766767375507375</v>
+      </c>
+      <c r="N99" s="44">
+        <f t="shared" si="51"/>
+        <v>0.15176681067160708</v>
+      </c>
+      <c r="O99" s="44">
+        <f t="shared" si="51"/>
+        <v>0.41054483912493089</v>
+      </c>
+      <c r="P99" s="44">
+        <f t="shared" si="51"/>
+        <v>0.11287712379549449</v>
+      </c>
+      <c r="Q99" s="44">
+        <f t="shared" si="51"/>
+        <v>0.18575424759098899</v>
       </c>
     </row>
     <row r="100" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C100" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="44">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2.791957143731322</v>
       </c>
       <c r="F100" s="12">
         <f t="shared" si="50"/>
@@ -5148,54 +5350,54 @@
       <c r="G100" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H100" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I100" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J100" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K100" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L100" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M100" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N100" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="O100" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="P100" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="Q100" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+      <c r="H100" s="44">
+        <f t="shared" si="51"/>
+        <v>0.33219280948873631</v>
+      </c>
+      <c r="I100" s="44">
+        <f t="shared" si="51"/>
+        <v>0.21609640474436814</v>
+      </c>
+      <c r="J100" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="44">
+        <f t="shared" si="51"/>
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="L100" s="44">
+        <f t="shared" si="51"/>
+        <v>0.39711017748039695</v>
+      </c>
+      <c r="M100" s="44">
+        <f t="shared" si="51"/>
+        <v>0.48766767375507375</v>
+      </c>
+      <c r="N100" s="44">
+        <f t="shared" si="51"/>
+        <v>0.15176681067160708</v>
+      </c>
+      <c r="O100" s="44">
+        <f t="shared" si="51"/>
+        <v>0.41054483912493089</v>
+      </c>
+      <c r="P100" s="44">
+        <f t="shared" si="51"/>
+        <v>0.33219280948873631</v>
+      </c>
+      <c r="Q100" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C101" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="44">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2.8026682760582369</v>
       </c>
       <c r="F101" s="12">
         <f t="shared" si="50"/>
@@ -5204,55 +5406,49 @@
       <c r="G101" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H101" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I101" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J101" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K101" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L101" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M101" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N101" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="O101" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="P101" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="Q101" s="6" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+      <c r="H101" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="44">
+        <f t="shared" si="51"/>
+        <v>0.18575424759098899</v>
+      </c>
+      <c r="J101" s="44">
+        <f t="shared" si="51"/>
+        <v>0.2435336213432141</v>
+      </c>
+      <c r="K101" s="44">
+        <f t="shared" si="51"/>
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="L101" s="44">
+        <f t="shared" si="51"/>
+        <v>0.39711017748039695</v>
+      </c>
+      <c r="M101" s="44">
+        <f t="shared" si="51"/>
+        <v>0.5</v>
+      </c>
+      <c r="N101" s="44">
+        <f t="shared" si="51"/>
+        <v>0.15176681067160708</v>
+      </c>
+      <c r="O101" s="44">
+        <f t="shared" si="51"/>
+        <v>0.43458686924914552</v>
+      </c>
+      <c r="P101" s="44">
+        <f t="shared" si="51"/>
+        <v>0.11287712379549449</v>
+      </c>
+      <c r="Q101" s="44">
+        <f t="shared" si="51"/>
+        <v>0.31265380694991707</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="U4:AD4"/>
-    <mergeCell ref="U7:AD7"/>
     <mergeCell ref="G74:Q74"/>
     <mergeCell ref="G89:Q89"/>
     <mergeCell ref="C89:D89"/>
@@ -5264,6 +5460,12 @@
     <mergeCell ref="G39:Q39"/>
     <mergeCell ref="G54:Q54"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="U4:AD4"/>
+    <mergeCell ref="U7:AD7"/>
   </mergeCells>
   <conditionalFormatting sqref="R6:R15">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
@@ -5379,13 +5581,13 @@
       </c>
     </row>
     <row r="17" spans="2:46" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
